--- a/src/server/assets/excel/50.xlsx
+++ b/src/server/assets/excel/50.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="433">
   <si>
     <t>請給我水</t>
   </si>
@@ -1238,6 +1239,122 @@
   </si>
   <si>
     <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string|string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string|string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近义词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SameCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foreign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conjunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Similar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antonym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meaning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Property </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反义词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1245,7 +1362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1259,6 +1376,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1281,8 +1411,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1565,7 +1701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4390,4 +4528,170 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" t="s">
+        <v>413</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>414</v>
+      </c>
+      <c r="B16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>431</v>
+      </c>
+      <c r="B18" t="s">
+        <v>413</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>